--- a/biology/Médecine/Carl_Ferdinand_Cori/Carl_Ferdinand_Cori.xlsx
+++ b/biology/Médecine/Carl_Ferdinand_Cori/Carl_Ferdinand_Cori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Ferdinand Cori — né le 5 décembre 1896 à Prague, (Autriche-Hongrie à cette époque), et mort le 20 octobre 1984 à Cambridge (Massachusetts), aux États-Unis — est un biochimiste américain d'origine tchèque. Gerty Theresa Cori, sa femme, et lui ont reçu la moitié du prix Nobel de physiologie ou médecine en 1947[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Ferdinand Cori — né le 5 décembre 1896 à Prague, (Autriche-Hongrie à cette époque), et mort le 20 octobre 1984 à Cambridge (Massachusetts), aux États-Unis — est un biochimiste américain d'origine tchèque. Gerty Theresa Cori, sa femme, et lui ont reçu la moitié du prix Nobel de physiologie ou médecine en 1947.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On doit au couple Cori la découverte du cycle de Cori.
-En 1947, Gerty Theresa Cori et lui sont conjointement co-lauréats du prix Nobel de physiologie ou médecine (l'autre co-lauréat est Bernardo Houssay) « pour la découverte du processus de conversion catalytique du glycogène[1] ».
+En 1947, Gerty Theresa Cori et lui sont conjointement co-lauréats du prix Nobel de physiologie ou médecine (l'autre co-lauréat est Bernardo Houssay) « pour la découverte du processus de conversion catalytique du glycogène ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1948 : prix Willard-Gibbs
 L'astéroïde (6175) Cori porte le nom de Carl Ferdinand Cori et Gerty Theresa Cori.</t>
